--- a/web/public/templates/ceremoday_import_goscie_wzornik.xlsx
+++ b/web/public/templates/ceremoday_import_goscie_wzornik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remix\Desktop\Praca inżynierska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EED8CE6-ED72-4A41-9CA1-B0567CBDB04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91396788-E774-499E-8D8C-58E6F4C9243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="4185" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61080" yWindow="4170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Goście" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="RELACJA_LIST">Słowniki!$B$5:$B$10</definedName>
-    <definedName name="RSVP_LIST">Słowniki!$D$15:$D$17</definedName>
-    <definedName name="STRONA_LIST">Słowniki!$C$12:$C$13</definedName>
+    <definedName name="RSVP_LIST">Słowniki!$D$14:$D$16</definedName>
+    <definedName name="STRONA_LIST">Słowniki!$C$11:$C$12</definedName>
     <definedName name="TYP_LIST">Słowniki!$A$3:$A$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Typ</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Notatki</t>
   </si>
   <si>
-    <t>Rodzic</t>
-  </si>
-  <si>
     <t>Gość</t>
   </si>
   <si>
@@ -113,15 +110,6 @@
     <t>RSVP_LIST</t>
   </si>
   <si>
-    <t>dziadkowie</t>
-  </si>
-  <si>
-    <t>wujostwo</t>
-  </si>
-  <si>
-    <t>kuzynostwo</t>
-  </si>
-  <si>
     <t>znajomi</t>
   </si>
   <si>
@@ -135,6 +123,21 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>Osoba kontaktowa</t>
+  </si>
+  <si>
+    <t>wspólna</t>
+  </si>
+  <si>
+    <t>rodzina</t>
+  </si>
+  <si>
+    <t>usługodawcy</t>
+  </si>
+  <si>
+    <t>inna</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -563,80 +566,80 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K1 B3:E3 B2:E2 I2:K2 I3:K3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 B3:E3 B2:E2 I2:K2 I3:K3" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -647,23 +650,23 @@
           </x14:formula1>
           <xm:sqref>F2:F500</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{932B5170-338E-4C8E-ACF5-4444F1189619}">
-          <x14:formula1>
-            <xm:f>Słowniki!$C$11:$C$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCFDF8AC-1B62-4957-87C1-8087A25D69DB}">
-          <x14:formula1>
-            <xm:f>Słowniki!$D$14:$D$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H500</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DA11109-3AB7-471C-8645-8D4D5EC88F95}">
           <x14:formula1>
             <xm:f>Słowniki!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F5F7469-8975-4417-B0D5-BE3E2CEBCB3C}">
+          <x14:formula1>
+            <xm:f>Słowniki!$C$10:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDE9E2A9-8D8F-456D-87EB-DEAB6D49D92F}">
+          <x14:formula1>
+            <xm:f>Słowniki!$D$13:$D$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -673,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -686,87 +689,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A5:D17 B2:D3 B4:D4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1 A11:B11 B2:D3 B4:D4 A15:C17 A14:B14 A5 C5:D5 A6 C6:D6 A7 C7:D7 A8 C8:D8 A9 C9:D9 A10 C10:D10 A12:B13 D12:D13 D11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>